--- a/analisi/data/raw/Dataset.xlsx
+++ b/analisi/data/raw/Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\benessere-capre-prc2018005\analisi\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99124EE-6495-4DDB-92EC-7C3DE9F76107}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17F5BE-77AB-4860-BF56-3991FB7137CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="ITEMs punteggio" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$BA$2:$DE$599</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$2:$DE$599</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'gruppoITEM-A'!$A$1:$M$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9436" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9877" uniqueCount="1558">
   <si>
     <t>anno</t>
   </si>
@@ -5209,7 +5209,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5248,6 +5248,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -5609,10 +5612,10 @@
   <dimension ref="A1:DE600"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="V49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BA49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:BJ589"/>
+      <selection pane="bottomRight" activeCell="BA3" sqref="BA3:BK589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58125,24 +58128,24 @@
       <c r="L600" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="BA2:DE599" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
+  <autoFilter ref="A2:DE599" xr:uid="{F2928C33-7DBA-453A-B38F-739188C7E053}">
+    <filterColumn colId="78">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="N1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="AG1:AT1"/>
     <mergeCell ref="BA1:BK1"/>
     <mergeCell ref="BL1:BX1"/>
     <mergeCell ref="BY1:CJ1"/>
     <mergeCell ref="CK1:CY1"/>
     <mergeCell ref="CZ1:DE1"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="N1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="AG1:AT1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58151,20 +58154,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08AB535-3C15-4330-9B99-DBDACAE5ED84}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -58204,8 +58207,11 @@
       <c r="M1" s="7" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="15" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2019</v>
       </c>
@@ -58215,38 +58221,41 @@
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2020</v>
       </c>
@@ -58256,38 +58265,41 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2020</v>
       </c>
@@ -58297,38 +58309,41 @@
       <c r="C4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3">
-        <v>2</v>
-      </c>
-      <c r="M4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2019</v>
       </c>
@@ -58338,38 +58353,41 @@
       <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
@@ -58379,38 +58397,41 @@
       <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2019</v>
       </c>
@@ -58420,38 +58441,41 @@
       <c r="C7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2019</v>
       </c>
@@ -58461,38 +58485,41 @@
       <c r="C8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2020</v>
       </c>
@@ -58502,38 +58529,41 @@
       <c r="C9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2019</v>
       </c>
@@ -58543,38 +58573,41 @@
       <c r="C10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -58584,38 +58617,41 @@
       <c r="C11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2</v>
-      </c>
-      <c r="L11" s="3">
-        <v>2</v>
-      </c>
-      <c r="M11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2019</v>
       </c>
@@ -58625,38 +58661,41 @@
       <c r="C12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2020</v>
       </c>
@@ -58666,38 +58705,41 @@
       <c r="C13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2019</v>
       </c>
@@ -58707,38 +58749,41 @@
       <c r="C14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2</v>
-      </c>
-      <c r="M14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2020</v>
       </c>
@@ -58748,38 +58793,41 @@
       <c r="C15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2019</v>
       </c>
@@ -58789,38 +58837,41 @@
       <c r="C16" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2019</v>
       </c>
@@ -58830,38 +58881,41 @@
       <c r="C17" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2020</v>
       </c>
@@ -58871,38 +58925,41 @@
       <c r="C18" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2019</v>
       </c>
@@ -58912,38 +58969,41 @@
       <c r="C19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2019</v>
       </c>
@@ -58953,38 +59013,41 @@
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2019</v>
       </c>
@@ -58994,38 +59057,41 @@
       <c r="C21" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2019</v>
       </c>
@@ -59035,38 +59101,41 @@
       <c r="C22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2</v>
-      </c>
-      <c r="L22" s="3">
-        <v>2</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2019</v>
       </c>
@@ -59076,38 +59145,41 @@
       <c r="C23" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2019</v>
       </c>
@@ -59117,38 +59189,41 @@
       <c r="C24" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2019</v>
       </c>
@@ -59158,38 +59233,41 @@
       <c r="C25" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2</v>
-      </c>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="3">
-        <v>2</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2019</v>
       </c>
@@ -59199,38 +59277,41 @@
       <c r="C26" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2019</v>
       </c>
@@ -59240,38 +59321,41 @@
       <c r="C27" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2019</v>
       </c>
@@ -59281,38 +59365,41 @@
       <c r="C28" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>2</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2</v>
-      </c>
-      <c r="I28" s="3">
-        <v>2</v>
-      </c>
-      <c r="J28" s="3">
-        <v>2</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>2</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2019</v>
       </c>
@@ -59322,38 +59409,41 @@
       <c r="C29" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3">
-        <v>2</v>
-      </c>
-      <c r="M29" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2019</v>
       </c>
@@ -59363,38 +59453,41 @@
       <c r="C30" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="3">
-        <v>2</v>
-      </c>
-      <c r="J30" s="3">
-        <v>2</v>
-      </c>
-      <c r="K30" s="3">
-        <v>2</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2019</v>
       </c>
@@ -59404,38 +59497,41 @@
       <c r="C31" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2019</v>
       </c>
@@ -59445,38 +59541,41 @@
       <c r="C32" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2019</v>
       </c>
@@ -59486,38 +59585,41 @@
       <c r="C33" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2019</v>
       </c>
@@ -59527,38 +59629,41 @@
       <c r="C34" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
-      <c r="G34" s="3">
-        <v>2</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2</v>
-      </c>
-      <c r="I34" s="3">
-        <v>2</v>
-      </c>
-      <c r="J34" s="3">
-        <v>2</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3">
-        <v>2</v>
-      </c>
-      <c r="M34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2019</v>
       </c>
@@ -59568,38 +59673,41 @@
       <c r="C35" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2019</v>
       </c>
@@ -59609,38 +59717,41 @@
       <c r="C36" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
-        <v>2</v>
-      </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3">
-        <v>2</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1</v>
-      </c>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-      <c r="M36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2019</v>
       </c>
@@ -59650,38 +59761,41 @@
       <c r="C37" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
-        <v>2</v>
-      </c>
-      <c r="I37" s="3">
-        <v>2</v>
-      </c>
-      <c r="J37" s="3">
-        <v>2</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2019</v>
       </c>
@@ -59691,38 +59805,41 @@
       <c r="C38" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2</v>
-      </c>
-      <c r="G38" s="3">
-        <v>2</v>
-      </c>
-      <c r="H38" s="3">
-        <v>2</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3">
-        <v>1</v>
-      </c>
-      <c r="K38" s="3">
-        <v>1</v>
-      </c>
-      <c r="L38" s="3">
-        <v>2</v>
-      </c>
-      <c r="M38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2019</v>
       </c>
@@ -59732,38 +59849,41 @@
       <c r="C39" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2</v>
-      </c>
-      <c r="I39" s="3">
-        <v>2</v>
-      </c>
-      <c r="J39" s="3">
-        <v>2</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
-      <c r="M39" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2019</v>
       </c>
@@ -59773,38 +59893,41 @@
       <c r="C40" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3">
-        <v>2</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
-      <c r="M40" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2019</v>
       </c>
@@ -59814,35 +59937,38 @@
       <c r="C41" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="D41" s="3">
-        <v>2</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2</v>
+      <c r="D41" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>1549</v>
       </c>
     </row>
   </sheetData>

--- a/analisi/data/raw/Dataset.xlsx
+++ b/analisi/data/raw/Dataset.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\benessere-capre-prc2018005\analisi\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17F5BE-77AB-4860-BF56-3991FB7137CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A0375E-9A37-433F-9E9E-C31C44591585}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
-    <sheet name="gruppoITEM-A" sheetId="5" r:id="rId2"/>
-    <sheet name="ITEMs punteggio" sheetId="4" r:id="rId3"/>
+    <sheet name="Items" sheetId="6" r:id="rId2"/>
+    <sheet name="gruppoITEM-A" sheetId="5" r:id="rId3"/>
+    <sheet name="ITEMs punteggio" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$2:$DE$599</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'gruppoITEM-A'!$A$1:$M$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gruppoITEM-A'!$A$1:$M$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9877" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11825" uniqueCount="1604">
   <si>
     <t>anno</t>
   </si>
@@ -4706,6 +4707,144 @@
   </si>
   <si>
     <t>puliziaamb</t>
+  </si>
+  <si>
+    <t>ripariest</t>
+  </si>
+  <si>
+    <t>stabulazione</t>
+  </si>
+  <si>
+    <t>supdecadulti</t>
+  </si>
+  <si>
+    <t>supdecubrimonta</t>
+  </si>
+  <si>
+    <t>boxbecchi</t>
+  </si>
+  <si>
+    <t>capretteria</t>
+  </si>
+  <si>
+    <t>mangiatoiaadulti</t>
+  </si>
+  <si>
+    <t>supabbadulti</t>
+  </si>
+  <si>
+    <t>infermeria</t>
+  </si>
+  <si>
+    <t>manmungitura</t>
+  </si>
+  <si>
+    <t>tempumid</t>
+  </si>
+  <si>
+    <t>illuminazione</t>
+  </si>
+  <si>
+    <t>testlatenza</t>
+  </si>
+  <si>
+    <t>oblivion</t>
+  </si>
+  <si>
+    <t>bcsadulte</t>
+  </si>
+  <si>
+    <t>puliziadulte</t>
+  </si>
+  <si>
+    <t>lesioneadulte</t>
+  </si>
+  <si>
+    <t>zoppie</t>
+  </si>
+  <si>
+    <t>unghioni</t>
+  </si>
+  <si>
+    <t>ascessi</t>
+  </si>
+  <si>
+    <t>mammella</t>
+  </si>
+  <si>
+    <t>mortadulti</t>
+  </si>
+  <si>
+    <t>mortcapretti</t>
+  </si>
+  <si>
+    <t>mutilazioni</t>
+  </si>
+  <si>
+    <t>insettiroditori</t>
+  </si>
+  <si>
+    <t>contatti</t>
+  </si>
+  <si>
+    <t>ingressiestranei</t>
+  </si>
+  <si>
+    <t>ingressiabituali</t>
+  </si>
+  <si>
+    <t>disinfmezzi</t>
+  </si>
+  <si>
+    <t>contattimezzi</t>
+  </si>
+  <si>
+    <t>raccarcasse</t>
+  </si>
+  <si>
+    <t>caricoscaricoanim</t>
+  </si>
+  <si>
+    <t>aquistimov</t>
+  </si>
+  <si>
+    <t>quarantena</t>
+  </si>
+  <si>
+    <t>conoscepiani</t>
+  </si>
+  <si>
+    <t>monitorasan</t>
+  </si>
+  <si>
+    <t>infmamm</t>
+  </si>
+  <si>
+    <t>parassitosi</t>
+  </si>
+  <si>
+    <t>analisiacqua</t>
+  </si>
+  <si>
+    <t>approvacuqa</t>
+  </si>
+  <si>
+    <t>illumispezioni</t>
+  </si>
+  <si>
+    <t>controattrezz</t>
+  </si>
+  <si>
+    <t>registrifarmaco</t>
+  </si>
+  <si>
+    <t>registriaz</t>
+  </si>
+  <si>
+    <t>sostillecite</t>
+  </si>
+  <si>
+    <t>nocivitaedifici</t>
   </si>
 </sst>
 </file>
@@ -5243,14 +5382,14 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -5612,10 +5751,10 @@
   <dimension ref="A1:DE600"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BA49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BA75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA3" sqref="BA3:BK589"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:DE589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5672,132 +5811,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>1390</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14" t="s">
         <v>1391</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="14" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="15" t="s">
         <v>1392</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="13" t="s">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="14" t="s">
         <v>1418</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13" t="s">
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14" t="s">
         <v>1393</v>
       </c>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13" t="s">
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14" t="s">
         <v>1492</v>
       </c>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13" t="s">
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="14"/>
+      <c r="BL1" s="14" t="s">
         <v>1493</v>
       </c>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13" t="s">
+      <c r="BM1" s="14"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="14"/>
+      <c r="BP1" s="14"/>
+      <c r="BQ1" s="14"/>
+      <c r="BR1" s="14"/>
+      <c r="BS1" s="14"/>
+      <c r="BT1" s="14"/>
+      <c r="BU1" s="14"/>
+      <c r="BV1" s="14"/>
+      <c r="BW1" s="14"/>
+      <c r="BX1" s="14"/>
+      <c r="BY1" s="14" t="s">
         <v>1494</v>
       </c>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13" t="s">
+      <c r="BZ1" s="14"/>
+      <c r="CA1" s="14"/>
+      <c r="CB1" s="14"/>
+      <c r="CC1" s="14"/>
+      <c r="CD1" s="14"/>
+      <c r="CE1" s="14"/>
+      <c r="CF1" s="14"/>
+      <c r="CG1" s="14"/>
+      <c r="CH1" s="14"/>
+      <c r="CI1" s="14"/>
+      <c r="CJ1" s="14"/>
+      <c r="CK1" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="CZ1" s="13" t="s">
+      <c r="CL1" s="14"/>
+      <c r="CM1" s="14"/>
+      <c r="CN1" s="14"/>
+      <c r="CO1" s="14"/>
+      <c r="CP1" s="14"/>
+      <c r="CQ1" s="14"/>
+      <c r="CR1" s="14"/>
+      <c r="CS1" s="14"/>
+      <c r="CT1" s="14"/>
+      <c r="CU1" s="14"/>
+      <c r="CV1" s="14"/>
+      <c r="CW1" s="14"/>
+      <c r="CX1" s="14"/>
+      <c r="CY1" s="14"/>
+      <c r="CZ1" s="14" t="s">
         <v>1480</v>
       </c>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="13"/>
+      <c r="DA1" s="14"/>
+      <c r="DB1" s="14"/>
+      <c r="DC1" s="14"/>
+      <c r="DD1" s="14"/>
+      <c r="DE1" s="14"/>
     </row>
     <row r="2" spans="1:109" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -8173,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:109" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2020</v>
       </c>
@@ -10319,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:109" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2020</v>
       </c>
@@ -12802,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:109" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2020</v>
       </c>
@@ -17037,7 +17176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:109" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>2020</v>
       </c>
@@ -18825,7 +18964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:109" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2020</v>
       </c>
@@ -19835,7 +19974,7 @@
       <c r="M146" s="3"/>
       <c r="AG146" s="3"/>
     </row>
-    <row r="147" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:109" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>2020</v>
       </c>
@@ -21906,7 +22045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:109" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>2020</v>
       </c>
@@ -25503,7 +25642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:109" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>2020</v>
       </c>
@@ -58129,6 +58268,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:DE599" xr:uid="{F2928C33-7DBA-453A-B38F-739188C7E053}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2017"/>
+        <filter val="2019"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="78">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -58136,16 +58281,16 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="10">
+    <mergeCell ref="BA1:BK1"/>
+    <mergeCell ref="BL1:BX1"/>
+    <mergeCell ref="BY1:CJ1"/>
+    <mergeCell ref="CK1:CY1"/>
+    <mergeCell ref="CZ1:DE1"/>
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="N1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="AG1:AT1"/>
-    <mergeCell ref="BA1:BK1"/>
-    <mergeCell ref="BL1:BX1"/>
-    <mergeCell ref="BY1:CJ1"/>
-    <mergeCell ref="CK1:CY1"/>
-    <mergeCell ref="CZ1:DE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -58153,11 +58298,6032 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D9C333-0857-415A-BC5B-2B8F618EB1B6}">
+  <dimension ref="A1:BH33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>1491</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>1603</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>1562</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>1565</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>1569</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>1571</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>1589</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>1593</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="BB1" s="12" t="s">
+        <v>1596</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>1598</v>
+      </c>
+      <c r="BE1" s="12" t="s">
+        <v>1599</v>
+      </c>
+      <c r="BF1" s="12" t="s">
+        <v>1600</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>1601</v>
+      </c>
+      <c r="BH1" s="12" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW8" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BA8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC8" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG8" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH10" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG11" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH11" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AU12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX12" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BA12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE12" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH12" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ13" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AR13" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS13" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC13" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG13" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH13" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW14" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BA14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR15" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AW15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE15" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH15" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AQ16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV16" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BA16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE16" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG16" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH16" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AO17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP17" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR17" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AW17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ17" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BD17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG17" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH17" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO18" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR18" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AW18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ18" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC18" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE18" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG18" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH18" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR19" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AW19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC19" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG19" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH19" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AR20" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW20" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BA20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BD20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG20" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH20" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AQ21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU21" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AW21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BA21" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BB21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC21" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE21" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG21" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH21" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AU22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AX22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BA22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BB22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC22" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE22" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG22" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH22" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AQ23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AU23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AW23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA23" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BB23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE23" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BF23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG23" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH23" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AO24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AQ24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AX24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AY24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AZ24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA24" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BB24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BC24" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG24" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH24" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AQ25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AW25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AX25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AY25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AZ25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA25" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BB25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC25" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG25" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH25" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AK26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AP26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU26" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV26" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AW26" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY26" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AZ26" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BA26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BD26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG26" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH26" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AM27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS27" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT27" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AU27" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV27" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AW27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BB27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC27" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG27" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH27" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AG28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AM28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AU28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AW28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ28" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC28" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BD28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG28" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH28" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AK29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV29" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AW29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BA29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC29" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG29" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH29" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AP30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ30" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AR30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV30" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AW30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AX30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AY30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ30" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BA30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB30" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BC30" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG30" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH30" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AK31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AM31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AO31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AP31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS31" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT31" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AU31" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AV31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AW31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BA31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC31" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG31" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH31" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AG32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AK32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AM32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AQ32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AT32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AW32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AX32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY32" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AZ32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BA32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BB32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC32" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG32" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH32" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AG33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AH33" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AI33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AK33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AM33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AN33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AO33" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AP33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AQ33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AR33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AS33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AT33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AU33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AV33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AW33" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AX33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="AZ33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BA33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BB33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BC33" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BD33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BG33" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BH33" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08AB535-3C15-4330-9B99-DBDACAE5ED84}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:N41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58207,7 +64373,7 @@
       <c r="M1" s="7" t="s">
         <v>1490</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>1491</v>
       </c>
     </row>
@@ -59976,7 +66142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BE589"/>
   <sheetViews>
@@ -59992,73 +66158,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1492</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>1493</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>1494</v>
       </c>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13" t="s">
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14" t="s">
         <v>1480</v>
       </c>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
+      <c r="BA1" s="14"/>
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
     </row>
     <row r="2" spans="1:57" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">

--- a/analisi/data/raw/Dataset.xlsx
+++ b/analisi/data/raw/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\benessere-capre-prc2018005\analisi\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A0375E-9A37-433F-9E9E-C31C44591585}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D8BFF4-CF21-4EB3-868B-241341CDDD2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$2:$DE$599</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gruppoITEM-A'!$A$1:$M$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Items!$A$1:$BH$33</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -4826,9 +4827,6 @@
     <t>analisiacqua</t>
   </si>
   <si>
-    <t>approvacuqa</t>
-  </si>
-  <si>
     <t>illumispezioni</t>
   </si>
   <si>
@@ -4845,6 +4843,9 @@
   </si>
   <si>
     <t>nocivitaedifici</t>
+  </si>
+  <si>
+    <t>approvacqua</t>
   </si>
 </sst>
 </file>
@@ -58301,8 +58302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D9C333-0857-415A-BC5B-2B8F618EB1B6}">
   <dimension ref="A1:BH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58351,7 +58352,7 @@
         <v>1491</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>1558</v>
@@ -58471,22 +58472,22 @@
         <v>1596</v>
       </c>
       <c r="BC1" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="BD1" s="12" t="s">
         <v>1597</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>1598</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>1599</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BG1" s="12" t="s">
         <v>1600</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BH1" s="12" t="s">
         <v>1601</v>
-      </c>
-      <c r="BH1" s="12" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
@@ -59947,7 +59948,7 @@
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>260</v>
@@ -64323,7 +64324,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:N1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66147,7 +66148,7 @@
   <dimension ref="A1:BE589"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="A327" sqref="A327:XFD327"/>
+      <selection activeCell="AK1" sqref="AK1:AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
